--- a/documentatie/Activiteiten en Aanwezigheid.xlsx
+++ b/documentatie/Activiteiten en Aanwezigheid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Desktop\school\eindopdracht-stagesysteem\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56960157-3A03-48EB-BE41-B0313347CD56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A75BB18-FEE0-4969-BD4E-9D8421110704}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{FFD2E398-21D8-42EB-989A-CB0C9E410701}"/>
   </bookViews>
@@ -32,45 +32,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="29">
-  <si>
-    <t>Naam(en)</t>
-  </si>
-  <si>
-    <t>activiteit</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
   <si>
     <t>datum</t>
   </si>
   <si>
-    <t>nicolay, gaia, izabella, marvin, christiaan</t>
-  </si>
-  <si>
-    <t>Plan van aanpak</t>
-  </si>
-  <si>
     <t>nicolay</t>
   </si>
   <si>
     <t>gaia</t>
   </si>
   <si>
-    <t>git instructies schrijven, discord server aangemaakt, gitbucket aangemaakt.</t>
-  </si>
-  <si>
-    <t>trello board aangemaakt</t>
-  </si>
-  <si>
     <t>christiaan</t>
-  </si>
-  <si>
-    <t>globaal gekeken naar wat voor data er moet komen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marvin </t>
-  </si>
-  <si>
-    <t>voorbereiden van vragen voor stakeholders</t>
   </si>
   <si>
     <t>izabella</t>
@@ -162,10 +135,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="justify" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="justify" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -480,124 +468,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDB3EC2-E9B9-4CD7-8411-EB7A03133CDF}">
-  <dimension ref="C3:F16"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="1" max="1" width="22.3984375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="141.86328125" style="4" customWidth="1"/>
     <col min="3" max="3" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="163.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="242.1328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="58.06640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="6">
+        <v>43787</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="6">
+        <v>43788</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
+    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="6">
+        <v>43789</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A5" s="6">
+        <v>43790</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="6">
+        <v>43791</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C12" s="2">
-        <v>43787</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C13" s="2">
-        <v>43788</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C14" s="2">
-        <v>43789</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C15" s="2">
-        <v>43790</v>
-      </c>
-      <c r="D15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C16" s="2">
-        <v>43791</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -620,7 +568,7 @@
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2">
         <v>43787</v>
@@ -640,120 +588,120 @@
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2">
         <v>43794</v>
@@ -773,42 +721,42 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C21" s="2">
         <v>43801</v>
@@ -828,37 +776,37 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/documentatie/Activiteiten en Aanwezigheid.xlsx
+++ b/documentatie/Activiteiten en Aanwezigheid.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Desktop\school\eindopdracht-stagesysteem\documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\stage-project\eindopdracht-stagesysteem\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A75BB18-FEE0-4969-BD4E-9D8421110704}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90B53ABC-B3FF-48A0-8632-6D2CE050DF21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{FFD2E398-21D8-42EB-989A-CB0C9E410701}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FFD2E398-21D8-42EB-989A-CB0C9E410701}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Activiteiten" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="25">
   <si>
     <t>datum</t>
   </si>
@@ -88,10 +88,25 @@
     <t>Gaia heeft trello opgezet, nicolay heeft discord en github opgezet. Christiaan is begonnen met data verzamelen voor de database, izabella voornamelijk bezig met pva</t>
   </si>
   <si>
-    <t>Marvin is bij de groep gekomen, is bezig met voorbereiden van interview, nicolay heeft bitbucket documentatie geschreven, christiaan is verder gegaan met data verzamelen, izabella en gaia bezig met pva</t>
-  </si>
-  <si>
-    <t>Marvin verder met voorbereiden inteview, nicolay bezig met feedback geven op alle werk en documentatie over project activiteit en aanwezigheid. Izabella verder met pva, christiaan verder met data verzamelen, gaia heeft een google forms opgezet met vragen over wat er bij de applicatie moet komen.</t>
+    <t>Interview met Johan Koster gehouden.</t>
+  </si>
+  <si>
+    <t>Interview met Bjorn Boes gehouden.</t>
+  </si>
+  <si>
+    <t>Marvin is bij de groep gekomen, is bezig met voorbereiden van interview, Nicolay heeft bitbucket documentatie geschreven, Christiaan is verder gegaan met data verzamelen, izabella en gaia bezig met pva</t>
+  </si>
+  <si>
+    <t>Marvin verder met voorbereiden inteview, Nicolay bezig met feedback geven op alle werk en documentatie over project activiteit en aanwezigheid. Izabella verder met pva, Christiaan verder met data verzamelen, gaia heeft een google forms opgezet met vragen over wat er bij de applicatie moet komen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stackholders zoeken en vragen of we ze mogen interviewen. </t>
+  </si>
+  <si>
+    <t>Stackholders zoeken en vragen of we ze mogen interviewen.</t>
+  </si>
+  <si>
+    <t>Interview met Bob Graafsma gehouden. Interviews die al gedaan zijn uitwerken. Nieuwe project leider, Christiaan.</t>
   </si>
 </sst>
 </file>
@@ -123,7 +138,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -131,11 +146,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -153,6 +186,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -468,23 +519,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDB3EC2-E9B9-4CD7-8411-EB7A03133CDF}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.3984375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="141.86328125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="141.88671875" style="4" customWidth="1"/>
     <col min="3" max="3" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="242.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.06640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="242.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -492,60 +543,97 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
         <v>43787</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
         <v>43788</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="6">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
         <v>43789</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A5" s="6">
+      <c r="B4" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
         <v>43790</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>19</v>
+      <c r="B5" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="6">
-        <v>43791</v>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
+        <v>43794</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>43795</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>43796</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>43797</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>43798</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>43801</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -557,16 +645,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCC393C-CA47-4338-8B40-28D293BA797A}">
   <dimension ref="B1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="7" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -586,7 +674,7 @@
         <v>43791</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -606,7 +694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -626,7 +714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -646,7 +734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -666,7 +754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -686,7 +774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -694,12 +782,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>11</v>
       </c>
@@ -719,42 +807,117 @@
         <v>43798</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>12</v>
       </c>
@@ -774,37 +937,52 @@
         <v>43805</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>7</v>
       </c>

--- a/documentatie/Activiteiten en Aanwezigheid.xlsx
+++ b/documentatie/Activiteiten en Aanwezigheid.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\stage-project\eindopdracht-stagesysteem\documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eindproject\eindopdracht-stagesysteem\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90B53ABC-B3FF-48A0-8632-6D2CE050DF21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECA3CE9-2B94-42E4-9E62-62A65F9D8CBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FFD2E398-21D8-42EB-989A-CB0C9E410701}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="26">
   <si>
     <t>datum</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>Interview met Bob Graafsma gehouden. Interviews die al gedaan zijn uitwerken. Nieuwe project leider, Christiaan.</t>
+  </si>
+  <si>
+    <t>week 4</t>
   </si>
 </sst>
 </file>
@@ -643,10 +646,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCC393C-CA47-4338-8B40-28D293BA797A}">
-  <dimension ref="B1:G29"/>
+  <dimension ref="B1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -987,6 +990,91 @@
         <v>7</v>
       </c>
     </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="2">
+        <v>43815</v>
+      </c>
+      <c r="D31" s="2">
+        <v>43816</v>
+      </c>
+      <c r="E31" s="2">
+        <v>43817</v>
+      </c>
+      <c r="F31" s="2">
+        <v>43818</v>
+      </c>
+      <c r="G31" s="2">
+        <v>43819</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
